--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_222.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_222.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,642 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05610859728506788</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Db', 'Db:min', 'Ab']]</t>
-        </is>
+          <t>isophonics_282</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1535714285714286</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>[['G:min/5', 'G:min/b7', 'Eb'], ['Eb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(49.58, 52.97)]</t>
+          <t>[['E:min', 'E:min/b7', 'C'], ['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(5.52, 13.12)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:26.016643', '0:01:29.993773'), ('0:00:44.917324', '0:00:48.272607')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:47.586031', '0:01:51.022585'), ('0:00:06.126439', '0:00:09.980952')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.04807692307692308</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2584033613445378</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(226.62, 230.46), (20.92, 24.02), (7.3, 10.3)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(68.82, 77.92), (43.18, 45.1), (87.68, 98.02)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:03.599751', '0:00:06.705328')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.09526209677419355</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'E'], ['D', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_175</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2476190476190476</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E'], ['D', 'E', 'A']]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(92.74687, 96.589773), (3.605464, 10.96619)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(100.421065, 105.343696), (19.731723, 23.783605)]</t>
+          <t>[('0:01:43.520929', '0:01:48.664149')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2076923076923077</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.465952, 5.272756)]</t>
+          <t>[['A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(63.6, 66.04)]</t>
+          <t>[('0:00:15.027029', '0:00:21.737596')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1503759398496241</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'E/G#', 'D#:min/A#']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min', 'Db', 'C:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(199.44, 202.06)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(63.359, 69.226)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:46.520000', '0:00:48.940000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2653846153846154</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(19.602494, 26.162131)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(37.995918, 46.610521)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:00.260000', '0:00:07.340000'), ('0:00:52.740000', '0:01:00.860000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:02.480000', '0:01:04.920000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_54</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05879120879120879</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb:7'], ['Bb:7', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4869565217391305</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb:7'], ['Bb:7', 'Bb:7', 'Eb']]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(6.95, 11.47), (22.43, 24.58)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(7.92, 15.14), (29.74, 40.37)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:14.450219', '0:00:23.088042')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04807692307692308</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4714285714285714</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(70.06, 80.28), (41.58, 43.48), (90.78, 101.32)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(283.3, 287.58), (26.96, 30.84), (10.16, 13.84)]</t>
+          <t>[('0:00:01.014823', '0:00:13.657911')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3441176470588235</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.45</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['B:7', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(3.389127, 22.035759)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(138.02, 142.34)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:13.384180', '0:00:21.737596')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:54.580000', '0:01:02.320000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2527472527472527</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(65.2, 67.5)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(10.619, 16.742)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:08.880000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:47.060000', '0:00:59.980000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.215311004784689</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(32.233898, 36.959159)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(9.738333, 15.380782)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:01.140000', '0:01:23.520000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1277173913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'E/7']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'A']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(9.201473, 13.148866)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(32.874217, 50.277573)]</t>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
-        </is>
-      </c>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.323076923076923</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.92, 23.9)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(154.02, 159.24)]</t>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.64, 23.8)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(2.36, 24.96)]</t>
+          <t>[('0:02:40.020000', '0:02:44.860000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_16</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1270161290322581</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb:7', 'Eb:7', 'Ab'], ['Eb:7', 'Ab:maj6', 'Eb:7', 'Ab:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#:7', 'B:7', 'E:7', 'A'], ['E:7', 'A:maj6', 'E:7', 'A:maj6']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.97, 4.77), (24.4, 27.91)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(42.05, 45.78), (21.24, 25.0)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(88.18, 109.56)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(87.44, 110.44)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
